--- a/Definettis theorem.xlsx
+++ b/Definettis theorem.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t xml:space="preserve">Coin 1 is fair, coin 2 is biased to produce heads 90% of the time. Coin 3 produces heads 70% of the time. Coin 1 is x1, the first variable (heads=0, tails=1)</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">If coin 1 comes up heads, coin 2 is tossed twice. If coin 1 comes up tails, coin 3 is tossed twice. These two tosses make the second and third variables, x2 and x3</t>
   </si>
   <si>
+    <t xml:space="preserve">x2 and x3 are not independent; they are positively correlated. E((x2-E(x2))*(x3-e(x3))=.1&gt;0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Because coins 2 and 3 are identical, x2 and x3 are interchangeable. De Finetti’s theorem says that x2 and x3, when conditioned on x1, are independent</t>
   </si>
   <si>
@@ -40,13 +43,22 @@
     <t xml:space="preserve">x1</t>
   </si>
   <si>
+    <t xml:space="preserve">x2</t>
+  </si>
+  <si>
     <t xml:space="preserve">x3</t>
   </si>
   <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
+    <t xml:space="preserve">p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x2*x3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E(x2*x3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">correlation</t>
   </si>
   <si>
     <t xml:space="preserve">Conditional probabilities</t>
@@ -55,31 +67,31 @@
     <t xml:space="preserve">outcome</t>
   </si>
   <si>
+    <t xml:space="preserve">p(x2=0|x1=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p(x3=0|x1=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p(x2=1|x1=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p(x3=1|x1=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p(x2=0|x1=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p(x3=1|x1=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p(x2=1|x1=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The probability mass (density) function of x3, conditioned on x1, is equal to the probability function of x3, conditioned on x2</t>
+  </si>
+  <si>
     <t xml:space="preserve">x2 and x3 are conditionally independent. X1 is the latent variable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p(x2=0|x1=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p(x3=0|x1=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p(x2=1|x1=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p(x3=1|x1=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p(x2=0|x1=1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p(x3=1|x1=1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p(x2=1|x1=1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The probability mass (density) function of x3, conditioned on x1, is equal to the probability function of x3, conditioned on x2</t>
   </si>
 </sst>
 </file>
@@ -94,6 +106,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -115,6 +128,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,99 +199,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:I27"/>
+  <dimension ref="B2:K29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.78"/>
+  </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="5" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1" t="s">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <f aca="false">C9*E9*G9</f>
-        <v>0.405</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <f aca="false">C10*E10*G10</f>
-        <v>0.045</v>
+      <c r="F10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -288,10 +272,10 @@
         <v>0.5</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>0</v>
@@ -301,7 +285,15 @@
       </c>
       <c r="H11" s="0" t="n">
         <f aca="false">C11*E11*G11</f>
-        <v>0.045</v>
+        <v>0.405</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">F11*D11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <f aca="false">I11*H11</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -312,10 +304,10 @@
         <v>0.5</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -325,55 +317,79 @@
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">C12*E12*G12</f>
-        <v>0.005</v>
+        <v>0.045</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <f aca="false">F12*D12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <f aca="false">I12*H12</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">C13*E13*G13</f>
-        <v>0.245</v>
+        <v>0.045</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <f aca="false">F13*D13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <f aca="false">I13*H13</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">C14*E14*G14</f>
-        <v>0.105</v>
+        <v>0.005</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <f aca="false">F14*D14</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <f aca="false">I14*H14</f>
+        <v>0.005</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -384,10 +400,10 @@
         <v>0.5</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>0</v>
@@ -397,7 +413,15 @@
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">C15*E15*G15</f>
-        <v>0.105</v>
+        <v>0.245</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <f aca="false">F15*D15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <f aca="false">I15*H15</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -408,10 +432,10 @@
         <v>0.5</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -421,132 +445,210 @@
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">C16*E16*G16</f>
+        <v>0.105</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">F16*D16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <f aca="false">I16*H16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <f aca="false">C17*E17*G17</f>
+        <v>0.105</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <f aca="false">F17*D17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <f aca="false">I17*H17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <f aca="false">C18*E18*G18</f>
         <v>0.045</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H17" s="0" t="n">
-        <f aca="false">SUM(H9:H16)</f>
-        <v>1</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="I18" s="0" t="n">
+        <f aca="false">F18*D18</f>
+        <v>1</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <f aca="false">I18*H18</f>
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="0" t="n">
+        <f aca="false">SUM(H11:H18)</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="0" t="n">
+        <f aca="false">SUM(J11:J18)</f>
+        <v>0.05</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <f aca="false">J19-0.04</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <f aca="false">(E9+E10)/(SUM(C9:C12))</f>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">(E11+E12)/(SUM(C11:C14))</f>
         <v>0.9</v>
       </c>
-      <c r="F21" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <f aca="false">(G9+G11)/SUM(C9:C12)</f>
+      <c r="F23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">(G11+G13)/SUM(C11:C14)</f>
         <v>0.9</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <f aca="false">(E11+E12)/SUM(C9:C12)</f>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <f aca="false">(E13+E14)/SUM(C11:C14)</f>
         <v>0.1</v>
       </c>
-      <c r="F22" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <f aca="false">(G10+G12)/SUM(C9:C12)</f>
+      <c r="F24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">(G12+G14)/SUM(C11:C14)</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <f aca="false">SUM(E13:E14)/SUM(C13:C16)</f>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">SUM(E15:E16)/SUM(C15:C18)</f>
         <v>0.7</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <f aca="false">(G14+G16)/SUM(C13:C16)</f>
+      <c r="F25" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <f aca="false">(G16+G18)/SUM(C15:C18)</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <f aca="false">(E15+E16)/SUM(C13:C16)</f>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">(E17+E18)/SUM(C15:C18)</f>
         <v>0.3</v>
       </c>
-      <c r="F24" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <f aca="false">(G14+G16)/SUM(C13:C16)</f>
+      <c r="F26" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">(G16+G18)/SUM(C15:C18)</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
-        <v>11</v>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
